--- a/biology/Botanique/Astrebla/Astrebla.xlsx
+++ b/biology/Botanique/Astrebla/Astrebla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astrebla est un genre de la famille des Poaceae (Graminées) poussant en Australie. Les espèces portent le nom de Mitchell grass (« herbe de Mitchell » en français) en l'honneur de l'explorateur qui l'a découvert dans la région de Bourke en 1835.
 On la trouve dans la moitié nord de l'Australie, essentiellement au Queensland, dans les zones de pluviométrie annuelle comprises entre 250 et 550 mm avec des pluies d'été.
@@ -514,7 +526,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il en existe quatre espèces : 
 Astrebla elymoides F. Muell. ex F.M.Bailey
@@ -548,7 +562,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Watson, L., and Dallwitz, M.J. 1992 onwards. The grass genera of the world: descriptions, illustrations, identification, and information retrieval; including synonyms, morphology, anatomy, physiology, phytochemistry, cytology, classification, pathogens, world and local distribution, and references. Version: 28th November 2005.</t>
         </is>
